--- a/news_titles_urls/article content cc/kebakaran content.xlsx
+++ b/news_titles_urls/article content cc/kebakaran content.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>Judul Berita</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Content</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kebakaran sebuah gudang triplek di Jalan Cipinang Muara 2 Kelurahan Pondok Bambu, Kecamatan Duren Sawit, Jakarta Timur, terjadi pada Selasa (30/5) malam. Tidak ada korban jiwa dalam peristiwa itu. 
-Kasie Ops Suku Dinas Penanggulangan Kebakaran dan Penyelamatan (Gulkarmat) Jakarta Timur Gatot Sulaeman di lokasi kebakaran mengatakan peristiwa kebakaran itu terjadi sekitar pukul 20.35 WIB. 
-Petugas Damkar mengerahkan 22 unit mobil pemadam dengan 120 personel untuk memadamkan api saat mendapat laporan warga. 
-Gatot menuturkan, belum diketahui pasti penyebab kebakaran itu, namun berdasarkan keterangan dari warga, ada yang membakar sampah di belakang gudang. 
-"Belum tahu persis penyebab kebakaran karena apa. Kemungkinan ada yang membakar sampah di belakang gudang, sehingga apinya merambat ke dalam gudang triplek," kata Gatot dikutip Antara. 
-Petugas Damkar terlihat berjibaku memadamkan api yang terus melalap tumpukan triplek yang berada di dalam gudang. 
-Beberapa kali petugas menyemprot air untuk memadamkan api, namun api terus menyala. Bahkan, petugas sampai kehabisan stok air, sehingga harus mengambil air di tempat yang lain. 
-Padatnya arus lalu lintas di Jalan Pahlawan Revolusi, kata dia, juga menjadi kesulitan petugas untuk memadamkan api. 
-"Kami sedang berusaha membuat rangkaian mobil pemadam dari TKP sampai ke BKT. Mudah-mudahan bisa terlaksana di tengah kepadatan lalu lintas," ucapnya.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+          <t>Pertamina Respons Kebakaran Truk Tangki BBM di Tol Merak-Tangerang</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>PT Pertamina (persero) membenarkan bahwa video viral truk tangki bahan bakar minyak (BBM) yang terbakar di Tol Merak-Tangerang dini hari tadi adalah milik perusahaan. 
 Pjs. Area Manager Communication Relation &amp; CSR Pertamina Patra Niaga Subholding Commercial &amp; Trading Regional Jawa Bagian Barat Joevan Yudha Achmad mengatakan truk tangki tersebut mengangkut BBM jenis pertalite sebanyak 16 KL dan biosolar 8 KL. Joevan menyebut insiden terjadi pada pukul 03.30 WIB. 
@@ -469,8 +464,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jenuh Mondok, 3 Santri Bakar Asrama Tahfiz Al-Quran di Makassar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Polisi tetapkan tiga orang santri sebagai tersangka pembakaran gedung Asrama Tahfiz Al-Quran yang berada di Jalan Hertasning, Kecamatan Rappocini, Makassar, Sulawesi Selatan. 
 Kebakaran terjadi pada Kamis (18/5) lalu. 
@@ -492,8 +492,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kemhan Rusia Dilaporkan Kebakaran, Moskow Buka Suara</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Kementerian Pertahanan Rusia dilaporkan mengalami kebakaran. 
 Mengutip layanan darurat, kantor berita Rusia, TASS, melaporkan kobaran api terjadi di salah satu balkon gedung Kemhan di pusat Moskow. 
@@ -510,8 +515,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kebakaran di Lantai 7 Asrama Polri Jakpus, Tak Ada Korban Jiwa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Kebakaran terjadi di lantai 7 Asrama Polri yang berlokasi di Menteng, Jakarta Pusat, Selasa (23/5) ini. Polisi menyebut tak ada korban dalam insiden ini. 
 "Iya (kebakaran) tadi," kata Kapolres Metro Jakarta Pusat Kombes Komarudin saat dihubungi. 
@@ -523,8 +533,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20 Orang Tewas dalam Kebakaran Asrama Sekolah di Guyana</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sedikitnya 20 orang tewas dan beberapa lainnya terluka dalam kebakaran asrama sekolah mengerikan yang terjadi di negara Guyana, Amerika Selatan. 
 "Dengan sangat sedih kami menyampaikan soal kejadian memilukan tentang kebakaran di asrama di sekolah Menengah Mahdia. Kami telah kehilangan banyak jiwa cantik akibat kebakaran. Jumlah korban meninggal mencapai 20 orang dan lainnya teruka," kata pernyataan Departemen Informasi Publik Guyana seperti dikutip dari CNN.com, Selasa (23/5). 
@@ -537,8 +552,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VIDEO: Kantor Pos paling Bersejarah Milik Filipina Terbakar</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kebakaran besar melanda gedung Kantor Pos Pusat Manila yang bersejarah pada Minggu malam. 
 Tim pemadam berjuang selama 7 jam sebelum api akhirnya bisa dikendalikan. 
@@ -548,8 +568,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rumah Kontrakan 26 Pintu Terbakar di Tambora Jakbar, 1 Orang Terluka</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Rumah kontrakan yang terdiri dari 26 pintu di Jalan Profesor Dokter Latumeten, Tambora, Jakarta Barat, terbakar pada Sabtu (20/5). Akibat kebakaran ini, satu orang terluka. 
 Petugas call center pemadam kebakaran Jakarta Barat,Irfan, mengatakan bahwa pihak berwenang menerima laporan kebakaran pukul 20.56 WIB. 
@@ -562,8 +587,13 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kebakaran Pabrik Plastik Jakbar Tak Ganggu Penerbangan Bandara Soetta</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Pihak Bandara Soekarno-Hatta menyatakan kebakaran pabrik plastik di Kalideres, Jakarta Barat tak mengganggu operasional penerbangan. 
 "Kalau untuk dampak terhadap bandara alhamdulillah enggak terdampak ya. Operasional di bandara berjalan baik dan lancar," kata Senior of Branch Communication dan Legal Bandara Soetta, M Holik Muardi saat dihubungi, Jumat (19/5). 
@@ -577,8 +607,13 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pabrik Plastik di Jakbar Kebakaran, 15 Unit Mobil Damkar Diterjunkan</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Kebakaran terjadi di sebuah pabrik plastik yang berlokasi di Jalan Gaga Rawa Kompeni, Kelurahan Kamal, Kecamatan Kalideres, Jakarta Barat, Jumat (19/5). 
 "Objek info awal pabrik plastik," kata Kepala Seksi Operasi Suku Dinas Penanggulangan Kebakaran dan Penyelamatan (Gulkarmat) Jakarta Barat Syarifudin dalam keterangannya. 
@@ -591,8 +626,13 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rumah Tahfiz Al Quran di Makassar Kebakaran Gegara Korsleting</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Satu gedung sekolah asrama Tahfiz Al Quran hangus kebakaran dilalap si jago merah di Jalan Hertasning, Kecamatan Rappocini, Makassar, Sulawesi Selatan pada Kamis (18/5). 
 Diduga kebakaran tersebut dipicu akibat arus pendek listrik dari salah satu ruangan atau korsleting 
@@ -606,8 +646,13 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kebakaran Landa Lapak Limbah Oli dan Rumah Warga di Tangerang</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Kebakaran melanda lapak limbah oli dan rumah warga di Bencongan Indah, Kelapa Dua, Kabupaten Tangerang, Rabu (17/5) malam. 
 Kebakaran tersebut pertama kali dilaporkan oleh warga. Berdasarkan laporan, penyebab kebakaran diduga berasal dari tumpukan drum oli. 
@@ -619,8 +664,13 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kebakaran Rumah Makan Jasunda BSD, 1 Karyawan Alami Luka Bakar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Kebakaran melanda rumah makan Jasunda di kawasan BSD, Tangerang Selatan, Jumat (12/5) pagi. Satu orang karyawan mengalami luka bakar dalam peristiwa tersebut. 
 "Ada satu, kami belum terdeteksi identitas, luka bakar atau terkena jilat api. Itu karyawannya," kata Komandan Peleton (Danton) Damkar Tangsel, Imam, dikutip dari detikcom. 
@@ -636,8 +686,13 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSUD Abepura Papua Kebakaran, Tiga Orang Dilaporkan Tewas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Kebakaran terjadi Rumah Sakit Umum Daerah (RSUD) Abepura, Kota Jayapura, Papua, diduga menewaskan tiga orang. 
 "Ada informasi ada korban meninggal dunia itu tiga orang. Terdiri dari satu wanita, dua pria," kata Kabid Damkar Kota Jayapura Margaretha Veronika Kirana, dikutip dari detikcom, Selasa (9/5/2023). 
@@ -648,8 +703,13 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Api Masih Berkobar di Lokasi Kebakaran Pabrik Cat Jakut</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Kebakaran yang melanda pabrik tempat peracikan cat di Jalan Bandengan Utara Raya, Penjaringan, Jakarta Utara sudah berlangsung selama kurang lebih lima jam. 
 Kepala Dinas Gulkarmat DKI Jakarta Satriadi Gunawan mengatakan saat ini pihaknya sudah melakukan proses pendinginan. Namun, terpantau api masih berkobar di lokasi tersebut. 
@@ -665,8 +725,13 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kebakaran di Pabrik Peracik Cat di Jakut, 35 Damkar Dikerahkan</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Sebanyak 35 unit pemadam beserta 150 personel Dinas Penanggulangan Kebakaran dan Penyelamatan DKI Jakarta memadamkan kebakaran tempat peracikan cat di Jalan Bandengan Utara Raya, Penjaringan, Jakarta Utara sekitar pukul 14.15 WIB, Senin (8/5). 
 "Kami sudah mengerahkan sekitar 35 unit dengan jumlah personel sekitar 150 orang. Saat ini titik api sudah berhasil kami lokalisir," kata Kepala Dinas Gulkarmat DKI Jakarta Satriadi Gunawan di Jakarta Utara. 
@@ -685,8 +750,13 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kerugian Kebakaran Malang Plaza Diperkirakan Capai Rp56 Miliar</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Jumlah kerugian kebakaran Mal Malang Plaza diperkirakan mencapai Rp56 miliar. Angka itu masih hitungan sementara. 
 "Kami coba hitung angkanya, kalkulasi sementara dari pelapor yang ada untuk kerugian Rp56 miliar," kata Kepala BPBD Kota Malang, Prayitno, Rabu (3/5). 
@@ -712,8 +782,13 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gudang Makanan di Makassar Terbakar, Diduga Arus Pendek</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Sebuah gudang makanan yang berada di Kawasan Industri Makassar (KIMA) hangus dilalap api. Dinas Pemadam Kebakaran (Damkar) Makassar mengerahkan 20 unit mobil pemadam. 
 Penyebab kebakaran yang menimpa gudang makanan tersebut diduga disebabkan arus pendek listrik. Api berkobar menyambar isi gudang yang mudah terbakar. 
@@ -729,8 +804,13 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Polisi Selidiki Sumber Api Kebakaran Gedung Malang Plaza</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Polresta Malang Kota mencari sumber api yang memicu kebakaran di Malang Plaza, Jalan Agus Salim, Kecamatan Klojen, Kota Malang, Jawa Timur. 
 "Kami akan memeriksa sumber api dari mana, titik api dari mana, sumber kebakaran seperti apa," Kapolresta Malang Kota, Kombes Budi Hermanto, Selasa (2/5). 
@@ -742,8 +822,13 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Asrama Polisi di Manado Kebakaran, Tidak Ada Korban Jiwa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>kebakaran terjadi di kompleks asrama polisi (Aspol) Wanea, Kota Manado, Sulawesi Utara pada Selasa (2/5) pagi sekitar pukul 09.45 WITA. 
 Sejumlah rumah dilalap api tepatnya di blok E yakni E33, E35, E37, E39 dan blok F yakni F14, F16, F18, F20. Tidak ada korban jiwa dalam peristiwa tersebut dan kerugian material masih dalam pendataan. 
@@ -766,8 +851,13 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Malang Plaza Terbakar, 15 Unit Mobil Damkar Diterjunkan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Malang Plaza, Jawa Timur terbakar. Sebanyak 15 unit mobil pemadam kebakaran (Damkar) diterjunkan untuk memadamkan api. 
 Kebakaran gedung pusat perbelanjaan elektronik di Jalan Agus Salim, Kecamatan Klojen, Kota Malang itu dilaporkan terjadi pada Selasa (2/5) pukul 02.00 WIB. 
@@ -780,8 +870,13 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tiga Hari Semburan Api di Rest Area Tol Cipali Masih Berkobar</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Kepolisian Resor Subang mengatakan semburan api di rest area KM 86 B Tol Cikopo-Palimanan (Cipali) di wilayah Kabupaten Subang, Jawa Barat, hingga Jumat (28/4) masih belum padam.Semburan api itu muncul dari sumur air di kawasan tempat parkir kendaraan rest area tersebut pada Rabu (26/4) sekitar pukul 08.30 WIB. 
 "Belum padam," kata Kapolres Subang AKBP Sumarni saat dihubungi di Bandung, Jawa Barat. 
@@ -791,15 +886,25 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VIDEO: Semburan Api Rest Area Tol Cipali Belum Padam, Pedagang Merugi</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Semburan api di rest area km 86-B Tol Cipali di Subang Jawa Barat, hingga kini masih menyala. Akibatnya, pengelola masih menutup rest area dari para pemudik, serta kehilangan penghasilan hingga tujuh juga per harinya.</t>
+        </is>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Semburan api di rest area km 86-B Tol Cipali di Subang Jawa Barat, hingga kini masih menyala. Akibatnya, pengelola masih menutup rest area dari para pemudik, serta kehilangan penghasilan hingga tujuh juga per harinya.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+          <t>Viral Video Kebakaran di Jakut, Damkar DKI Jakarta Tegaskan Hoaks</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Dinas Penanggulangan Kebakaran dan Penyelamatan Provinsi DKI Jakarta menegaskan video kebakaran di Kampung Bandan, Kelurahan Ancol, Kecamatan Pademangan, Jakarta Utara, yang viral beredar dengan narasi kejadian hari ini merupakan informasi tidak benar alias hoaks. 
 Melalui akun Instagram @humasjakfire, Damkar DKI Jakarta memastikan video kebakaran yang beredar itu merupakan peristiwa yang terjadi pada 5 Juli 2018 sekitar pukul 13.25 WIB. 
@@ -812,8 +917,13 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Api di Rest Area KM 86 Cipali Masih Berkobar, Pemadaman Belum Selesai</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Pengelola Tol Cikopo-Palimanan (Cipali) masih melakukan pemadaman kobaran api yang menyembur di rest area KM 86 B Jalan Tol Cipali. Pemadaman api di lokasi tersebut sudah berlangsug sejak Rabu (26/4). 
 Direktur Operasional ASTRA Tol Cipali Agung Prasetyo mengatakan semburan api yang terjadi di rest area KM 86 B ini bukan berasal dari galian sumur bor baru. 
@@ -829,8 +939,13 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kebakaran Hebat di Kampung Coklat Blitar, Tak Ada Korban Jiwa</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Kebakaran melanda lokasi wisata Kampung Coklat di Desa Plosorejo, Kecamatan Kademangan, Kabupaten Blitar saat libur Lebaran 2023. 
 Kasi Humas Polres Blitar Iptu Udiyono mengemukakan kejadian kebakaran itu berawal dari area sekolah memasak (cooking class) di lokasi wisata itu. Api kemudian merembet dan menjadi besar. 
@@ -844,8 +959,13 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kebakaran di Jakut Hanguskan Puluhan Rumah, Diduga Korsleting Listrik</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Kebakaran melanda 30 rumah petak yang berlokasi di Jalan Kampung Muka, Kelurahan Ancol, Kecamatan Pademangan, Jakarta Utara, Selasa (25/4) sekitar pukul 13.00 WIB. 
 "Objek (kebakaran) rumah, 30 rumah petak," kata Kasi Ops Gulkamart Jakarta Utara Abdul Wahid dalam keterangannya. 
@@ -858,8 +978,13 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TSM Makassar Kebakaran, Api Sudah Berhasil Dipadamkan</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Trans Studio Mall (TSM) Makassar dilanda kebakaran dengan sumber api diduga berasal dari lantai dua gedung, Senin (24/4). 
 Kobaran api dilaporkan mulai membesar pada pukul 18.15 WITA. Para pengunjung dan karyawan mal saat itu berlarian menyelamatkan diri akibat panik dengan kejadian tersebut. 
@@ -880,8 +1005,13 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kebakaran Lahap Ruko Tiga Lantai di Pasar Sentral Makassar</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Ruko yang menjual pakaian grosiran berlantai tiga yang berada di kompleks Pasar Sentral Makassar dilalap kobaran api, Minggu (23/4). Diduga penyebab kebakaran tersebut akibat arus pendek listrik. 
 "Ruko yang menjual pakaian tadi dilalap api yang diduga akibat korsleting listrik," kata Kepala Dinas Damkar Makassar, Hasanuddin, Minggu (23/4). 
@@ -892,8 +1022,13 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pilu Muara Angke Dilahap Api Kala Syahdu Takbir, Hingga Lupa Lebaran</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Kumandang takbir menyambut Idulfitri 1444 H berganti jeritan panik dan histeris warga kala kebakaran melanda ratusan rumah di Muara Angke, Jakarta Utara, Sabtu (22/3) dini hari WIB. 
 Setidaknya lebih dari 200an rumah warga--mayoritas semi permanen--ludes hangus terbakar pada dini hari itu. Humas Dinas Penanggulangan Kebakaran dan Penyelamatan (Gulkarmat) DKI Jakarta, Mulat Wijayanto, mengatakan pihaknya mendapat informasi kebakaran terjadi mulai pukul 01.45 WIB, Sabtu dini hari lalu. 
@@ -919,8 +1054,13 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fakta-fakta Kebakaran di Muara Angke, Isu Korsleting Hingga Nol Korban</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Kebakaran besar melahap permukiman padat penduduk di kawasan Tembok Bolong, Pelabuhan Perikanan Muara Angke, Penjaringan, Jakarta Utara, Sabtu (22/4) dini hari. Ratusan rumah pun jadi korban. 
 Insiden itu terjadi di tengah persiapan menyambut hari raya Idulfitri. 
@@ -951,8 +1091,13 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2 Orang Tewas akibat Kebakaran di Restoran Spanyol, 10 Luka-luka</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Setidaknya dua orang tewas dan 10 lainnya luka-luka akibat kebakaran di salah satu restoran di Madrid, Spanyol, menjelang akhir pekan. 
 Layanan gawat darurat Spanyol menyatakan kebakaran itu bermula di Burro Canaglia Bar &amp; Resto pada Jumat (21/4) malam. 
@@ -964,8 +1109,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>219 Rumah Terbakar di Muara Angke, Petugas Sebut Nihil Korban Jiwa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Petugas Puskesmas Penjaringan memastikan tidak ada korban jiwa dalam peristiwa kebakaran yang menghanguskan 219 rumah padat penduduk di kawasan Tembok Bolong, Pelabuhan Perikanan Muara Angke, Penjaringan, Jakarta Utara, Jumat (21/4) dini hari. 
 "Enggak ada korban sih, semuanya aman. Korban luka juga enggak ada, artinya tidak ada warga yang dirawat di rumah sakit atau puksesmas," kata petugas di lokasi, Jakarta Utara, Selasa (22/4). 
@@ -981,8 +1131,13 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>219 Rumah Terbakar di Muara Angke, Ratusan Warga Mengungsi Sementara</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Ketua RW 22 Beni Sadar mengatakan terdapat 219 rumah terdampak akibat kebakaran yang melanda pemukiman padat penduduk di kawasan Tembok Bolong, Pelabuhan Perikanan Muara Angke, Penjaringan, Jakarta Utara, Jumat (21/4) dini hari. 
 "Hampir 300-an rumah, sementara yang tercatat 219 rumah yang terkena," kata Beni di Jakarta Utara, Sabtu (22/4). 
@@ -998,6 +1153,31 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kebakaran Muara Angke, 162 Warga Dievakuasi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Kebakaran di kawasan Tembok Bolong, Pelabuhan Perikanan Muara Angke, Penjaringan, Jakarta Utara, pada Jumat (21/4) dini hari membuat 162 warga dievakuasi. 
+Dalam peristiwa nahas itu, si jago merah melahap 219 rumah semi permanen warga. 
+Salah satu petugas posko, Beni Sadar sekaligus ketua RW 22 mengatakan, sebelumnya, 135 warga berhasil dievakuasi. 
+"Pagi jam 07.00 saya baru mencatat 135. Masuk jam 1 an jadi 162," kata Beni di lokasi, Jakarta Utara, Selasa (22/4). 
+Dalam prosesnya, Beni mengaku kesulitan untuk melakukan evakuasi, karena warga mengungsi secara terpisah di beberapa titik. 
+Ia menjelaskan beberapa warga ada yang mengungsi di musala, Sekretariat RW dan di lokasi pengungsian petugas.Menurutnya, tempat evakuasi saat ini telah dipilih karena berdekatan dengan lokasi kejadian. 
+"Di sini ada tempat sendiri, di sana ada tempat sendiri, di sini juga ada tempat. Jadi dari musala datang ke sini," kata Beni. 
+"Karena memang dari TKP ini berdekatan" tambah Beni. 
+Beni juga mengatakan pihaknya kini tengah bekerja sama dengan berbagai pihak terkait penyaluran bantuan warga selama dievakuasi. 
+"Ada dari Dinas Sosial, Temen RW, BPBD, PMI," kata Beni. 
+Ia juga telah mendata sejumlah keperluan warga selama di tenda pengungsian. 
+Berdasarkan data diperoleh, kebutuhan warga meliputi kebutuhan pakaian, obat-obatan, air mineral, makanan dan lain sebagainya. 
+Ia juga menjamin keperluan warga akan tercukupi selama di tenda pengungsian. 
+"Sementara aman (keperluan warga selama evakuasi)," pungkas Beni.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
